--- a/tests/AP_Purchase_Order/AP-Purchase Order.xlsx
+++ b/tests/AP_Purchase_Order/AP-Purchase Order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMS_Project\tests\AP_Purchase_Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089E589D-7AF4-4FC9-8DEE-45040F5113D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02C9451-B01D-43BE-A7B2-EC7005B2473E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,7 +145,7 @@
     <t>INR</t>
   </si>
   <si>
-    <t>PO2713TT16</t>
+    <t>PO2713TT18</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1424,7 @@
   <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/tests/AP_Purchase_Order/AP-Purchase Order.xlsx
+++ b/tests/AP_Purchase_Order/AP-Purchase Order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMS_Project\tests\AP_Purchase_Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02C9451-B01D-43BE-A7B2-EC7005B2473E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377ABAE7-93F6-46E8-A63E-AB005260987F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,14 +145,14 @@
     <t>INR</t>
   </si>
   <si>
-    <t>PO2713TT18</t>
+    <t>PO2713TT19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -163,6 +163,12 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -227,10 +233,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1424,7 +1430,7 @@
   <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1591,16 +1597,16 @@
       </c>
     </row>
     <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>45159</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>45159</v>
       </c>
       <c r="E2" s="3" t="s">
